--- a/results/Homeopathy_excluded/mod2.corrupt_salience.eff.COMB.xlsx
+++ b/results/Homeopathy_excluded/mod2.corrupt_salience.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.129089137668253</v>
+        <v>-0.129087909992682</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0515954177269498</v>
+        <v>0.0515951596100897</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.230214298180374</v>
+        <v>-0.230212564605054</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0279639771561316</v>
+        <v>-0.0279632553803111</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.50194965668096</v>
+        <v>-2.50193837887535</v>
       </c>
       <c r="H2" t="n">
-        <v>0.012351148657808</v>
+        <v>0.0123515421017829</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.125529423607182</v>
+        <v>0.125529591316821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0575818899673244</v>
+        <v>0.0575815052257527</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0126709931094778</v>
+        <v>0.0126719148987406</v>
       </c>
       <c r="F3" t="n">
-        <v>0.238387854104886</v>
+        <v>0.238387267734901</v>
       </c>
       <c r="G3" t="n">
-        <v>2.18001569032234</v>
+        <v>2.18003316906483</v>
       </c>
       <c r="H3" t="n">
-        <v>0.029256298513852</v>
+        <v>0.0292550029567231</v>
       </c>
     </row>
   </sheetData>
